--- a/PRORUDCCION/monitoreo_costos.xlsx
+++ b/PRORUDCCION/monitoreo_costos.xlsx
@@ -818,7 +818,7 @@
         <v>25852.39</v>
       </c>
       <c r="D12" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E12" t="n">
         <v>25852.39</v>
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-3.637978807091713e-12</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.407211792446158e-16</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.407211792446158e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +884,7 @@
         <v>83932.61</v>
       </c>
       <c r="D14" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" t="n">
         <v>83932.61</v>
@@ -2501,7 +2501,7 @@
         <v>52537.85</v>
       </c>
       <c r="D63" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E63" t="n">
         <v>54863.96</v>
@@ -3260,10 +3260,10 @@
         <v>48009.84</v>
       </c>
       <c r="D86" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E86" t="n">
-        <v>48373.818125</v>
+        <v>48050.4</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3271,13 +3271,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>363.9781249999942</v>
+        <v>40.55999999999767</v>
       </c>
       <c r="H86" t="n">
-        <v>0.007581323432862808</v>
+        <v>0.0008448268105037981</v>
       </c>
       <c r="I86" t="n">
-        <v>0.007581323432862808</v>
+        <v>0.0008448268105037981</v>
       </c>
     </row>
     <row r="87">
@@ -3293,10 +3293,10 @@
         <v>41019.8</v>
       </c>
       <c r="D87" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E87" t="n">
-        <v>40966.19039215687</v>
+        <v>40967.03362204724</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3304,13 +3304,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>-53.60960784313647</v>
+        <v>-52.76637795276474</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.001306920263949031</v>
+        <v>-0.001286363608617417</v>
       </c>
       <c r="I87" t="n">
-        <v>0.001306920263949031</v>
+        <v>0.001286363608617417</v>
       </c>
     </row>
     <row r="88">
@@ -3524,10 +3524,10 @@
         <v>22705.99</v>
       </c>
       <c r="D94" t="n">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E94" t="n">
-        <v>22663.30523809524</v>
+        <v>22662.3745229682</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3535,13 +3535,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>-42.68476190476213</v>
+        <v>-43.61547703180258</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.001879889927933648</v>
+        <v>-0.001920879778058679</v>
       </c>
       <c r="I94" t="n">
-        <v>0.001879889927933648</v>
+        <v>0.001920879778058679</v>
       </c>
     </row>
     <row r="95">
@@ -3821,10 +3821,10 @@
         <v>69096.74000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E103" t="n">
-        <v>68690.72148148148</v>
+        <v>68666.43626168225</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>-406.0185185185255</v>
+        <v>-430.303738317758</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.005876087909770063</v>
+        <v>-0.006227554850167431</v>
       </c>
       <c r="I103" t="n">
-        <v>0.005876087909770063</v>
+        <v>0.006227554850167431</v>
       </c>
     </row>
     <row r="104">
@@ -3854,7 +3854,7 @@
         <v>96676.78</v>
       </c>
       <c r="D104" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E104" t="n">
         <v>93729.84</v>
@@ -3887,10 +3887,10 @@
         <v>51706.08</v>
       </c>
       <c r="D105" t="n">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E105" t="n">
-        <v>51170.15823899371</v>
+        <v>51160.85507936508</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3898,13 +3898,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>-535.9217610062915</v>
+        <v>-545.2249206349225</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.01036477259553019</v>
+        <v>-0.0105446964967161</v>
       </c>
       <c r="I105" t="n">
-        <v>0.01036477259553019</v>
+        <v>0.0105446964967161</v>
       </c>
     </row>
     <row r="106">
@@ -4118,10 +4118,10 @@
         <v>21847.84</v>
       </c>
       <c r="D112" t="n">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E112" t="n">
-        <v>21833.76222222222</v>
+        <v>21833.5540699523</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4129,13 +4129,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>-14.07777777778028</v>
+        <v>-14.28593004769573</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.0006443555874530518</v>
+        <v>-0.0006538829489640957</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0006443555874530518</v>
+        <v>0.0006538829489640957</v>
       </c>
     </row>
     <row r="113">
@@ -4250,10 +4250,10 @@
         <v>93153.84</v>
       </c>
       <c r="D116" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E116" t="n">
-        <v>92632.8872972973</v>
+        <v>92727.25095890411</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4261,13 +4261,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>-520.9527027026925</v>
+        <v>-426.5890410958818</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.00559239106732146</v>
+        <v>-0.004579403716431677</v>
       </c>
       <c r="I116" t="n">
-        <v>0.00559239106732146</v>
+        <v>0.004579403716431677</v>
       </c>
     </row>
     <row r="117">
@@ -4382,10 +4382,10 @@
         <v>13507.71</v>
       </c>
       <c r="D120" t="n">
-        <v>2872</v>
+        <v>2868</v>
       </c>
       <c r="E120" t="n">
-        <v>13520.94287604457</v>
+        <v>13521.76546025104</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4393,13 +4393,13 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>13.23287604456709</v>
+        <v>14.05546025104377</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0009796535493112519</v>
+        <v>0.001040550933581175</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0009796535493112519</v>
+        <v>0.001040550933581175</v>
       </c>
     </row>
     <row r="121">
@@ -4415,10 +4415,10 @@
         <v>18775.78</v>
       </c>
       <c r="D121" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E121" t="n">
-        <v>18773.09900473934</v>
+        <v>18770.4009263658</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -4426,13 +4426,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>-2.680995260659984</v>
+        <v>-5.379073634201632</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.0001427900870515091</v>
+        <v>-0.0002864900224758509</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0001427900870515091</v>
+        <v>0.0002864900224758509</v>
       </c>
     </row>
     <row r="122">
@@ -4514,10 +4514,10 @@
         <v>36695.86</v>
       </c>
       <c r="D124" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E124" t="n">
-        <v>36869.15365482234</v>
+        <v>36883.93564102564</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>173.2936548223443</v>
+        <v>188.0756410256436</v>
       </c>
       <c r="H124" t="n">
-        <v>0.004722430672624766</v>
+        <v>0.005125255029467726</v>
       </c>
       <c r="I124" t="n">
-        <v>0.004722430672624766</v>
+        <v>0.005125255029467726</v>
       </c>
     </row>
     <row r="125">
@@ -4547,10 +4547,10 @@
         <v>12211.32</v>
       </c>
       <c r="D125" t="n">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E125" t="n">
-        <v>12341.15545667447</v>
+        <v>12346.13529411765</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4558,13 +4558,13 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>129.8354566744729</v>
+        <v>134.8152941176468</v>
       </c>
       <c r="H125" t="n">
-        <v>0.01063238508813731</v>
+        <v>0.01104019009555452</v>
       </c>
       <c r="I125" t="n">
-        <v>0.01063238508813731</v>
+        <v>0.01104019009555452</v>
       </c>
     </row>
     <row r="126">
@@ -4910,10 +4910,10 @@
         <v>11371.65</v>
       </c>
       <c r="D136" t="n">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E136" t="n">
-        <v>11428.04161211129</v>
+        <v>11428.17975849365</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -4921,13 +4921,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>56.39161211129249</v>
+        <v>56.5297584936543</v>
       </c>
       <c r="H136" t="n">
-        <v>0.00495896480381409</v>
+        <v>0.004971113118470433</v>
       </c>
       <c r="I136" t="n">
-        <v>0.00495896480381409</v>
+        <v>0.004971113118470433</v>
       </c>
     </row>
     <row r="137">
@@ -5009,10 +5009,10 @@
         <v>7630.5</v>
       </c>
       <c r="D139" t="n">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E139" t="n">
-        <v>7578.872670623145</v>
+        <v>7578.53398663697</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -5020,13 +5020,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>-51.62732937685541</v>
+        <v>-51.96601336302956</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.006765916961779098</v>
+        <v>-0.006810302517925373</v>
       </c>
       <c r="I139" t="n">
-        <v>0.006765916961779098</v>
+        <v>0.006810302517925373</v>
       </c>
     </row>
     <row r="140">
@@ -5174,10 +5174,10 @@
         <v>33037.07</v>
       </c>
       <c r="D144" t="n">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E144" t="n">
-        <v>32595.43649425287</v>
+        <v>32599.40507246377</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -5185,13 +5185,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>-441.633505747126</v>
+        <v>-437.6649275362324</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.01336781699306646</v>
+        <v>-0.01324769198770449</v>
       </c>
       <c r="I144" t="n">
-        <v>0.01336781699306646</v>
+        <v>0.01324769198770449</v>
       </c>
     </row>
     <row r="145">
@@ -5240,7 +5240,7 @@
         <v>70825.69</v>
       </c>
       <c r="D146" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E146" t="n">
         <v>73593.27</v>
@@ -5372,10 +5372,10 @@
         <v>37002.06</v>
       </c>
       <c r="D150" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E150" t="n">
-        <v>37056.15604456824</v>
+        <v>37060.18223463688</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -5383,13 +5383,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>54.09604456824309</v>
+        <v>58.12223463688133</v>
       </c>
       <c r="H150" t="n">
-        <v>0.001461973862218566</v>
+        <v>0.001570783751955468</v>
       </c>
       <c r="I150" t="n">
-        <v>0.001461973862218566</v>
+        <v>0.001570783751955468</v>
       </c>
     </row>
     <row r="151">
@@ -5669,10 +5669,10 @@
         <v>23917.11</v>
       </c>
       <c r="D159" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E159" t="n">
-        <v>24007.20652173913</v>
+        <v>24331.56</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -5680,13 +5680,13 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>90.09652173913128</v>
+        <v>414.4500000000007</v>
       </c>
       <c r="H159" t="n">
-        <v>0.003767032126336806</v>
+        <v>0.01732859864757911</v>
       </c>
       <c r="I159" t="n">
-        <v>0.003767032126336806</v>
+        <v>0.01732859864757911</v>
       </c>
     </row>
     <row r="160">
@@ -5801,10 +5801,10 @@
         <v>10680.97</v>
       </c>
       <c r="D163" t="n">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E163" t="n">
-        <v>11073.89503749148</v>
+        <v>11074.22507503411</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -5812,13 +5812,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>392.9250374914791</v>
+        <v>393.255075034107</v>
       </c>
       <c r="H163" t="n">
-        <v>0.03678739267046711</v>
+        <v>0.03681829225567593</v>
       </c>
       <c r="I163" t="n">
-        <v>0.03678739267046711</v>
+        <v>0.03681829225567593</v>
       </c>
     </row>
     <row r="164">
@@ -5900,10 +5900,10 @@
         <v>25921.71</v>
       </c>
       <c r="D166" t="n">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E166" t="n">
-        <v>25789.9076284585</v>
+        <v>25786.68420634921</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -5911,13 +5911,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>-131.8023715415002</v>
+        <v>-135.0257936507915</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.005084632593355152</v>
+        <v>-0.005208984810446204</v>
       </c>
       <c r="I166" t="n">
-        <v>0.005084632593355152</v>
+        <v>0.005208984810446204</v>
       </c>
     </row>
     <row r="167">
@@ -5933,10 +5933,10 @@
         <v>21285.17</v>
       </c>
       <c r="D167" t="n">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="E167" t="n">
-        <v>20916.06435897436</v>
+        <v>20912.53664045747</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -5944,13 +5944,13 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>-369.1056410256424</v>
+        <v>-372.6333595425349</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.01734097688792912</v>
+        <v>-0.01750671286828035</v>
       </c>
       <c r="I167" t="n">
-        <v>0.01734097688792912</v>
+        <v>0.01750671286828035</v>
       </c>
     </row>
     <row r="168">
@@ -6527,10 +6527,10 @@
         <v>23915.49</v>
       </c>
       <c r="D185" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E185" t="n">
-        <v>23772.91577405858</v>
+        <v>23762.72662447257</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -6538,13 +6538,13 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>-142.5742259414255</v>
+        <v>-152.7633755274292</v>
       </c>
       <c r="H185" t="n">
-        <v>-0.005961584978665523</v>
+        <v>-0.006387633100029694</v>
       </c>
       <c r="I185" t="n">
-        <v>0.005961584978665523</v>
+        <v>0.006387633100029694</v>
       </c>
     </row>
     <row r="186">
@@ -6725,7 +6725,7 @@
         <v>43315.8</v>
       </c>
       <c r="D191" t="n">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E191" t="n">
         <v>43066.83</v>
@@ -7154,10 +7154,10 @@
         <v>38199</v>
       </c>
       <c r="D204" t="n">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E204" t="n">
-        <v>38224.63990712074</v>
+        <v>38224.87504132231</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -7165,13 +7165,13 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>25.63990712074155</v>
+        <v>25.8750413223097</v>
       </c>
       <c r="H204" t="n">
-        <v>0.0006712193282740793</v>
+        <v>0.000677374835003788</v>
       </c>
       <c r="I204" t="n">
-        <v>0.0006712193282740793</v>
+        <v>0.000677374835003788</v>
       </c>
     </row>
     <row r="205">
@@ -7220,7 +7220,7 @@
         <v>15214.08</v>
       </c>
       <c r="D206" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E206" t="n">
         <v>15214.08</v>
@@ -7253,10 +7253,10 @@
         <v>31327.41</v>
       </c>
       <c r="D207" t="n">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E207" t="n">
-        <v>31146.91620689655</v>
+        <v>31144.03683453238</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -7264,13 +7264,13 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>-180.4937931034474</v>
+        <v>-183.373165467623</v>
       </c>
       <c r="H207" t="n">
-        <v>-0.005761529379653389</v>
+        <v>-0.005853441617663989</v>
       </c>
       <c r="I207" t="n">
-        <v>0.005761529379653389</v>
+        <v>0.005853441617663989</v>
       </c>
     </row>
     <row r="208">
@@ -7481,13 +7481,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>20422.35</v>
+        <v>20423.21</v>
       </c>
       <c r="D214" t="n">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="E214" t="n">
-        <v>20383.65408940398</v>
+        <v>20379.00433110368</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -7495,13 +7495,13 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>-38.69591059602681</v>
+        <v>-44.20566889632028</v>
       </c>
       <c r="H214" t="n">
-        <v>-0.001894782461177426</v>
+        <v>-0.00216448192504118</v>
       </c>
       <c r="I214" t="n">
-        <v>0.001894782461177426</v>
+        <v>0.00216448192504118</v>
       </c>
     </row>
     <row r="215">
@@ -7649,7 +7649,7 @@
         <v>46162.66</v>
       </c>
       <c r="D219" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E219" t="n">
         <v>46455.98</v>
@@ -7814,10 +7814,10 @@
         <v>48785.61</v>
       </c>
       <c r="D224" t="n">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="E224" t="n">
-        <v>48759.75076130055</v>
+        <v>48754.85497998398</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -7825,13 +7825,13 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>-25.85923869944963</v>
+        <v>-30.75502001601853</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.0005300587345212991</v>
+        <v>-0.000630411713946357</v>
       </c>
       <c r="I224" t="n">
-        <v>0.0005300587345212991</v>
+        <v>0.000630411713946357</v>
       </c>
     </row>
     <row r="225">
@@ -7979,7 +7979,7 @@
         <v>69409.47</v>
       </c>
       <c r="D229" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E229" t="n">
         <v>76114.38</v>
@@ -8144,10 +8144,10 @@
         <v>19283.91</v>
       </c>
       <c r="D234" t="n">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E234" t="n">
-        <v>19298.8585115304</v>
+        <v>19293.78789473684</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -8155,13 +8155,13 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>14.94851153039781</v>
+        <v>9.877894736840972</v>
       </c>
       <c r="H234" t="n">
-        <v>0.0007751805277248136</v>
+        <v>0.0005122350569381921</v>
       </c>
       <c r="I234" t="n">
-        <v>0.0007751805277248136</v>
+        <v>0.0005122350569381921</v>
       </c>
     </row>
     <row r="235">
@@ -8837,7 +8837,7 @@
         <v>36952.55</v>
       </c>
       <c r="D255" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E255" t="n">
         <v>34254.84</v>
@@ -9662,10 +9662,10 @@
         <v>13494.34</v>
       </c>
       <c r="D280" t="n">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E280" t="n">
-        <v>13548.31005076142</v>
+        <v>13550.22928571429</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -9673,13 +9673,13 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>53.97005076142159</v>
+        <v>55.88928571428551</v>
       </c>
       <c r="H280" t="n">
-        <v>0.003999458347827429</v>
+        <v>0.004141683529115578</v>
       </c>
       <c r="I280" t="n">
-        <v>0.003999458347827429</v>
+        <v>0.004141683529115578</v>
       </c>
     </row>
     <row r="281">
@@ -9959,7 +9959,7 @@
         <v>20706.11</v>
       </c>
       <c r="D289" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E289" t="n">
         <v>20466.86</v>
@@ -11873,10 +11873,10 @@
         <v>9774.98</v>
       </c>
       <c r="D347" t="n">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="E347" t="n">
-        <v>9888.434689100219</v>
+        <v>9890.434027879677</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -11884,13 +11884,13 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>113.4546891002192</v>
+        <v>115.4540278796776</v>
       </c>
       <c r="H347" t="n">
-        <v>0.01160664155836832</v>
+        <v>0.01181117791337451</v>
       </c>
       <c r="I347" t="n">
-        <v>0.01160664155836832</v>
+        <v>0.01181117791337451</v>
       </c>
     </row>
     <row r="348">
@@ -12269,10 +12269,10 @@
         <v>8104.21</v>
       </c>
       <c r="D359" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E359" t="n">
-        <v>8156.64</v>
+        <v>8156.639999999999</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -12280,13 +12280,13 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>52.43000000000029</v>
+        <v>52.42999999999938</v>
       </c>
       <c r="H359" t="n">
-        <v>0.006469476975547313</v>
+        <v>0.006469476975547201</v>
       </c>
       <c r="I359" t="n">
-        <v>0.006469476975547313</v>
+        <v>0.006469476975547201</v>
       </c>
     </row>
     <row r="360">
@@ -12500,10 +12500,10 @@
         <v>12683.06</v>
       </c>
       <c r="D366" t="n">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="E366" t="n">
-        <v>12339.1858071506</v>
+        <v>12333.36041439477</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -12511,13 +12511,13 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>-343.8741928494037</v>
+        <v>-349.6995856052345</v>
       </c>
       <c r="H366" t="n">
-        <v>-0.02711287282796137</v>
+        <v>-0.02757217781869947</v>
       </c>
       <c r="I366" t="n">
-        <v>0.02711287282796137</v>
+        <v>0.02757217781869947</v>
       </c>
     </row>
     <row r="367">
@@ -12533,7 +12533,7 @@
         <v>36272</v>
       </c>
       <c r="D367" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E367" t="n">
         <v>32876.49</v>
@@ -12731,10 +12731,10 @@
         <v>9112.4</v>
       </c>
       <c r="D373" t="n">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E373" t="n">
-        <v>9076.167402733963</v>
+        <v>9076.278947368421</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
@@ -12742,13 +12742,13 @@
         </is>
       </c>
       <c r="G373" t="n">
-        <v>-36.23259726603646</v>
+        <v>-36.121052631579</v>
       </c>
       <c r="H373" t="n">
-        <v>-0.003976185995570483</v>
+        <v>-0.003963945023438283</v>
       </c>
       <c r="I373" t="n">
-        <v>0.003976185995570483</v>
+        <v>0.003963945023438283</v>
       </c>
     </row>
     <row r="374">
@@ -12797,10 +12797,10 @@
         <v>11951.86</v>
       </c>
       <c r="D375" t="n">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E375" t="n">
-        <v>11643.34904024768</v>
+        <v>11641.06456521739</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -12808,13 +12808,13 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>-308.5109597523242</v>
+        <v>-310.7954347826089</v>
       </c>
       <c r="H375" t="n">
-        <v>-0.02581279899131383</v>
+        <v>-0.02600393869929943</v>
       </c>
       <c r="I375" t="n">
-        <v>0.02581279899131383</v>
+        <v>0.02600393869929943</v>
       </c>
     </row>
     <row r="376">
@@ -13127,10 +13127,10 @@
         <v>12968.71</v>
       </c>
       <c r="D385" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E385" t="n">
-        <v>13144.43214285714</v>
+        <v>13153.56036036036</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
@@ -13138,13 +13138,13 @@
         </is>
       </c>
       <c r="G385" t="n">
-        <v>175.7221428571411</v>
+        <v>184.8503603603585</v>
       </c>
       <c r="H385" t="n">
-        <v>0.01354970100011035</v>
+        <v>0.01425356572553157</v>
       </c>
       <c r="I385" t="n">
-        <v>0.01354970100011035</v>
+        <v>0.01425356572553157</v>
       </c>
     </row>
     <row r="386">
@@ -13226,7 +13226,7 @@
         <v>16040.87</v>
       </c>
       <c r="D388" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E388" t="n">
         <v>16017.18</v>
@@ -13237,13 +13237,13 @@
         </is>
       </c>
       <c r="G388" t="n">
-        <v>-23.68999999999869</v>
+        <v>-23.69000000000051</v>
       </c>
       <c r="H388" t="n">
-        <v>-0.001476852564729886</v>
+        <v>-0.00147685256473</v>
       </c>
       <c r="I388" t="n">
-        <v>0.001476852564729886</v>
+        <v>0.00147685256473</v>
       </c>
     </row>
     <row r="389">
@@ -13457,10 +13457,10 @@
         <v>11527.63</v>
       </c>
       <c r="D395" t="n">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E395" t="n">
-        <v>11546.04217922607</v>
+        <v>11547.16510204082</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -13468,13 +13468,13 @@
         </is>
       </c>
       <c r="G395" t="n">
-        <v>18.41217922606847</v>
+        <v>19.53510204081613</v>
       </c>
       <c r="H395" t="n">
-        <v>0.001597221564716119</v>
+        <v>0.001694632985341837</v>
       </c>
       <c r="I395" t="n">
-        <v>0.001597221564716119</v>
+        <v>0.001694632985341837</v>
       </c>
     </row>
     <row r="396">
@@ -13589,10 +13589,10 @@
         <v>10352.73</v>
       </c>
       <c r="D399" t="n">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E399" t="n">
-        <v>10251.43419953596</v>
+        <v>10253.54697674419</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -13600,13 +13600,13 @@
         </is>
       </c>
       <c r="G399" t="n">
-        <v>-101.2958004640368</v>
+        <v>-99.18302325581317</v>
       </c>
       <c r="H399" t="n">
-        <v>-0.009784453034517157</v>
+        <v>-0.009580373800515726</v>
       </c>
       <c r="I399" t="n">
-        <v>0.009784453034517157</v>
+        <v>0.009580373800515726</v>
       </c>
     </row>
     <row r="400">
@@ -13787,10 +13787,10 @@
         <v>24978.02</v>
       </c>
       <c r="D405" t="n">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="E405" t="n">
-        <v>24547.78710578842</v>
+        <v>24564.19252525253</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
@@ -13798,13 +13798,13 @@
         </is>
       </c>
       <c r="G405" t="n">
-        <v>-430.2328942115782</v>
+        <v>-413.8274747474752</v>
       </c>
       <c r="H405" t="n">
-        <v>-0.01722445951326719</v>
+        <v>-0.01656766528121425</v>
       </c>
       <c r="I405" t="n">
-        <v>0.01722445951326719</v>
+        <v>0.01656766528121425</v>
       </c>
     </row>
     <row r="406">
@@ -15107,10 +15107,10 @@
         <v>78266.37</v>
       </c>
       <c r="D445" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E445" t="n">
-        <v>91080.87999999999</v>
+        <v>91080.88</v>
       </c>
       <c r="F445" t="inlineStr">
         <is>
@@ -15118,13 +15118,13 @@
         </is>
       </c>
       <c r="G445" t="n">
-        <v>12814.50999999999</v>
+        <v>12814.51000000001</v>
       </c>
       <c r="H445" t="n">
-        <v>0.163729453659343</v>
+        <v>0.1637294536593432</v>
       </c>
       <c r="I445" t="n">
-        <v>0.163729453659343</v>
+        <v>0.1637294536593432</v>
       </c>
     </row>
     <row r="446">
@@ -15206,10 +15206,10 @@
         <v>28607.25</v>
       </c>
       <c r="D448" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E448" t="n">
-        <v>27926.78451612904</v>
+        <v>27853.88</v>
       </c>
       <c r="F448" t="inlineStr">
         <is>
@@ -15217,13 +15217,13 @@
         </is>
       </c>
       <c r="G448" t="n">
-        <v>-680.4654838709648</v>
+        <v>-753.369999999999</v>
       </c>
       <c r="H448" t="n">
-        <v>-0.02378646964916113</v>
+        <v>-0.02633493257827995</v>
       </c>
       <c r="I448" t="n">
-        <v>0.02378646964916113</v>
+        <v>0.02633493257827995</v>
       </c>
     </row>
     <row r="449">
@@ -15990,7 +15990,7 @@
         <v>26842.03</v>
       </c>
       <c r="D472" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E472" t="n">
         <v>26558.24</v>
@@ -17805,10 +17805,10 @@
         <v>16349.18</v>
       </c>
       <c r="D527" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E527" t="n">
-        <v>16553.02460674157</v>
+        <v>16640.23</v>
       </c>
       <c r="F527" t="inlineStr">
         <is>
@@ -17816,13 +17816,13 @@
         </is>
       </c>
       <c r="G527" t="n">
-        <v>203.8446067415716</v>
+        <v>291.0499999999993</v>
       </c>
       <c r="H527" t="n">
-        <v>0.01246818536107448</v>
+        <v>0.01780211606942974</v>
       </c>
       <c r="I527" t="n">
-        <v>0.01246818536107448</v>
+        <v>0.01780211606942974</v>
       </c>
     </row>
     <row r="528">
@@ -17904,10 +17904,10 @@
         <v>17481.48</v>
       </c>
       <c r="D530" t="n">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E530" t="n">
-        <v>17532.77745098039</v>
+        <v>17569.94710144927</v>
       </c>
       <c r="F530" t="inlineStr">
         <is>
@@ -17915,13 +17915,13 @@
         </is>
       </c>
       <c r="G530" t="n">
-        <v>51.29745098039348</v>
+        <v>88.4671014492742</v>
       </c>
       <c r="H530" t="n">
-        <v>0.002934388334419825</v>
+        <v>0.00506061852024395</v>
       </c>
       <c r="I530" t="n">
-        <v>0.002934388334419825</v>
+        <v>0.00506061852024395</v>
       </c>
     </row>
     <row r="531">
@@ -18003,10 +18003,10 @@
         <v>18729.84</v>
       </c>
       <c r="D533" t="n">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="E533" t="n">
-        <v>17969.64568690096</v>
+        <v>17971.2770953295</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
@@ -18014,13 +18014,13 @@
         </is>
       </c>
       <c r="G533" t="n">
-        <v>-760.1943130990403</v>
+        <v>-758.5629046705035</v>
       </c>
       <c r="H533" t="n">
-        <v>-0.04058733620250041</v>
+        <v>-0.0405002341007987</v>
       </c>
       <c r="I533" t="n">
-        <v>0.04058733620250041</v>
+        <v>0.0405002341007987</v>
       </c>
     </row>
     <row r="534">
@@ -18102,10 +18102,10 @@
         <v>39888.02</v>
       </c>
       <c r="D536" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E536" t="n">
-        <v>39841.46000000001</v>
+        <v>39841.46</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
@@ -18113,13 +18113,13 @@
         </is>
       </c>
       <c r="G536" t="n">
-        <v>-46.55999999999767</v>
+        <v>-46.56000000000495</v>
       </c>
       <c r="H536" t="n">
-        <v>-0.00116726776611117</v>
+        <v>-0.001167267766111352</v>
       </c>
       <c r="I536" t="n">
-        <v>0.00116726776611117</v>
+        <v>0.001167267766111352</v>
       </c>
     </row>
     <row r="537">
@@ -18300,7 +18300,7 @@
         <v>40663.48</v>
       </c>
       <c r="D542" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E542" t="n">
         <v>40663.48</v>
@@ -18597,10 +18597,10 @@
         <v>57395.04</v>
       </c>
       <c r="D551" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E551" t="n">
-        <v>57411.23800947868</v>
+        <v>57427.59142857142</v>
       </c>
       <c r="F551" t="inlineStr">
         <is>
@@ -18608,13 +18608,13 @@
         </is>
       </c>
       <c r="G551" t="n">
-        <v>16.1980094786777</v>
+        <v>32.55142857142346</v>
       </c>
       <c r="H551" t="n">
-        <v>0.0002822196740115122</v>
+        <v>0.0005671470665657426</v>
       </c>
       <c r="I551" t="n">
-        <v>0.0002822196740115122</v>
+        <v>0.0005671470665657426</v>
       </c>
     </row>
     <row r="552">
@@ -18663,10 +18663,10 @@
         <v>37650.52</v>
       </c>
       <c r="D553" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E553" t="n">
-        <v>37505.22833333334</v>
+        <v>37513.24111553785</v>
       </c>
       <c r="F553" t="inlineStr">
         <is>
@@ -18674,13 +18674,13 @@
         </is>
       </c>
       <c r="G553" t="n">
-        <v>-145.2916666666642</v>
+        <v>-137.2788844621537</v>
       </c>
       <c r="H553" t="n">
-        <v>-0.003858955113147554</v>
+        <v>-0.003646135151975421</v>
       </c>
       <c r="I553" t="n">
-        <v>0.003858955113147554</v>
+        <v>0.003646135151975421</v>
       </c>
     </row>
     <row r="554">
@@ -18927,10 +18927,10 @@
         <v>22350.47</v>
       </c>
       <c r="D561" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E561" t="n">
-        <v>20836.19981132076</v>
+        <v>20818.03</v>
       </c>
       <c r="F561" t="inlineStr">
         <is>
@@ -18938,13 +18938,13 @@
         </is>
       </c>
       <c r="G561" t="n">
-        <v>-1514.270188679246</v>
+        <v>-1532.439999999999</v>
       </c>
       <c r="H561" t="n">
-        <v>-0.06775115640428347</v>
+        <v>-0.06856410625816811</v>
       </c>
       <c r="I561" t="n">
-        <v>0.06775115640428347</v>
+        <v>0.06856410625816811</v>
       </c>
     </row>
     <row r="562">
@@ -18960,10 +18960,10 @@
         <v>30018.69</v>
       </c>
       <c r="D562" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E562" t="n">
-        <v>30123.09176470588</v>
+        <v>30137.01148148148</v>
       </c>
       <c r="F562" t="inlineStr">
         <is>
@@ -18971,13 +18971,13 @@
         </is>
       </c>
       <c r="G562" t="n">
-        <v>104.401764705879</v>
+        <v>118.3214814814783</v>
       </c>
       <c r="H562" t="n">
-        <v>0.003477892096753024</v>
+        <v>0.003941593769797358</v>
       </c>
       <c r="I562" t="n">
-        <v>0.003477892096753024</v>
+        <v>0.003941593769797358</v>
       </c>
     </row>
     <row r="563">
@@ -19092,7 +19092,7 @@
         <v>27932.8</v>
       </c>
       <c r="D566" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E566" t="n">
         <v>27932.8</v>
@@ -19103,13 +19103,13 @@
         </is>
       </c>
       <c r="G566" t="n">
-        <v>-3.637978807091713e-12</v>
+        <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>-1.302403914785382e-16</v>
+        <v>0</v>
       </c>
       <c r="I566" t="n">
-        <v>1.302403914785382e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -19818,7 +19818,7 @@
         <v>45497.79</v>
       </c>
       <c r="D588" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E588" t="n">
         <v>41288.29</v>
@@ -20610,10 +20610,10 @@
         <v>16379.87</v>
       </c>
       <c r="D612" t="n">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E612" t="n">
-        <v>16391.23939577039</v>
+        <v>16395.5647706422</v>
       </c>
       <c r="F612" t="inlineStr">
         <is>
@@ -20621,13 +20621,13 @@
         </is>
       </c>
       <c r="G612" t="n">
-        <v>11.36939577039266</v>
+        <v>15.69477064220155</v>
       </c>
       <c r="H612" t="n">
-        <v>0.0006941078146769575</v>
+        <v>0.0009581743104311296</v>
       </c>
       <c r="I612" t="n">
-        <v>0.0006941078146769575</v>
+        <v>0.0009581743104311296</v>
       </c>
     </row>
     <row r="613">
@@ -21303,10 +21303,10 @@
         <v>13346.3</v>
       </c>
       <c r="D633" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E633" t="n">
-        <v>13123.88315789474</v>
+        <v>13048.92</v>
       </c>
       <c r="F633" t="inlineStr">
         <is>
@@ -21314,13 +21314,13 @@
         </is>
       </c>
       <c r="G633" t="n">
-        <v>-222.4168421052636</v>
+        <v>-297.380000000001</v>
       </c>
       <c r="H633" t="n">
-        <v>-0.01666505639055496</v>
+        <v>-0.02228183091943093</v>
       </c>
       <c r="I633" t="n">
-        <v>0.01666505639055496</v>
+        <v>0.02228183091943093</v>
       </c>
     </row>
     <row r="634">
@@ -21402,10 +21402,10 @@
         <v>30964.12</v>
       </c>
       <c r="D636" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E636" t="n">
-        <v>30964.12382978723</v>
+        <v>31055.50347826087</v>
       </c>
       <c r="F636" t="inlineStr">
         <is>
@@ -21413,13 +21413,13 @@
         </is>
       </c>
       <c r="G636" t="n">
-        <v>0.003829787230642978</v>
+        <v>91.38347826086829</v>
       </c>
       <c r="H636" t="n">
-        <v>1.236846786100486e-07</v>
+        <v>0.002951269994460307</v>
       </c>
       <c r="I636" t="n">
-        <v>1.236846786100486e-07</v>
+        <v>0.002951269994460307</v>
       </c>
     </row>
     <row r="637">
@@ -21666,10 +21666,10 @@
         <v>25084.82</v>
       </c>
       <c r="D644" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E644" t="n">
-        <v>25084.82243902439</v>
+        <v>25009.49777777778</v>
       </c>
       <c r="F644" t="inlineStr">
         <is>
@@ -21677,13 +21677,13 @@
         </is>
       </c>
       <c r="G644" t="n">
-        <v>0.002439024392515421</v>
+        <v>-75.32222222221753</v>
       </c>
       <c r="H644" t="n">
-        <v>9.723109005826715e-08</v>
+        <v>-0.003002701323837187</v>
       </c>
       <c r="I644" t="n">
-        <v>9.723109005826715e-08</v>
+        <v>0.003002701323837187</v>
       </c>
     </row>
     <row r="645">
@@ -22029,10 +22029,10 @@
         <v>13345.76</v>
       </c>
       <c r="D655" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E655" t="n">
-        <v>13345.75555555556</v>
+        <v>13474.61428571429</v>
       </c>
       <c r="F655" t="inlineStr">
         <is>
@@ -22040,13 +22040,13 @@
         </is>
       </c>
       <c r="G655" t="n">
-        <v>-0.004444444444743567</v>
+        <v>128.8542857142857</v>
       </c>
       <c r="H655" t="n">
-        <v>-3.33022955960812e-07</v>
+        <v>0.009655072900628038</v>
       </c>
       <c r="I655" t="n">
-        <v>3.33022955960812e-07</v>
+        <v>0.009655072900628038</v>
       </c>
     </row>
     <row r="656">
